--- a/biology/Botanique/Perovskia/Perovskia.xlsx
+++ b/biology/Botanique/Perovskia/Perovskia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Perovskia est un genre de plantes de la famille des Lamiaceae. Ses espèces sont parfois appelées « sauge d'Afghanistan », « lavande d'Afghanistan » ou « sauge de Russie ».
-Cette plante s'adapte facilement à un nouveau milieu. Perovskia possède des feuilles longues dont les coloris changent suivant les espèces et les saisons[1].
+Cette plante s'adapte facilement à un nouveau milieu. Perovskia possède des feuilles longues dont les coloris changent suivant les espèces et les saisons.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Neuf espèces sont actuellement acceptées au sein de ce genre :
 Perovskia abrotanoides Kar.
@@ -551,7 +565,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est dédié à Vassili Alexeïevitch Perovski (1794-1857), général et homme d'État russe.
 </t>
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Plantes et jardins,
